--- a/sub_pro_28_small_pop_area/datasets/africa_country_size.xlsx
+++ b/sub_pro_28_small_pop_area/datasets/africa_country_size.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_Files\afro_dataviz\sub_pro_28_small_pop_area\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7865D00C-6DE2-4FC2-89F1-CFA8856EA193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3583E8EB-D8ED-45F2-96C4-DCD7A8408F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBFB5B32-02F7-4397-BEDE-C9EE30E4F9F1}"/>
   </bookViews>
@@ -370,13 +370,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,10 +404,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,791 +733,793 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>0.04</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>2E-3</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>2E-3</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <v>1E-3</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <v>1E-4</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <v>1E-4</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="3">
         <v>1E-4</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="3">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="4">
         <v>1</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>110</v>
       </c>
     </row>
